--- a/outputs-HGR-r202/test-g__CAG-302_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__CAG-302_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Row</t>
   </si>
@@ -97,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,14 +107,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,33 +142,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -190,7 +194,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -216,7 +220,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -242,7 +246,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -268,7 +272,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -294,7 +298,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -320,7 +324,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -346,7 +350,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -372,104 +376,104 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.1250955675186084</v>
+        <v>0.13059758319312673</v>
       </c>
       <c r="C10">
-        <v>0.1555119681549387</v>
+        <v>0.1718043866175038</v>
       </c>
       <c r="D10">
-        <v>0.086982538516022209</v>
+        <v>0.10492909280192507</v>
       </c>
       <c r="E10">
-        <v>0.25465199500518243</v>
+        <v>0.22937779049629312</v>
       </c>
       <c r="F10">
-        <v>0.21318093607985905</v>
+        <v>0.23755304631403476</v>
       </c>
       <c r="G10">
-        <v>0.16457699472538906</v>
+        <v>0.12573810057711657</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0.13059758319312673</v>
+        <v>0.12977656619044914</v>
       </c>
       <c r="C11">
-        <v>0.1718043866175038</v>
+        <v>0.15177573528857349</v>
       </c>
       <c r="D11">
-        <v>0.10492909280192507</v>
+        <v>0.10923729316541934</v>
       </c>
       <c r="E11">
-        <v>0.22937779049629312</v>
+        <v>0.21520695425316194</v>
       </c>
       <c r="F11">
-        <v>0.23755304631403476</v>
+        <v>0.25007694096898048</v>
       </c>
       <c r="G11">
-        <v>0.12573810057711657</v>
+        <v>0.14392651013341562</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0.12977656619044914</v>
+        <v>0.13840278439532683</v>
       </c>
       <c r="C12">
-        <v>0.15177573528857349</v>
+        <v>0.17169069327219955</v>
       </c>
       <c r="D12">
-        <v>0.10923729316541934</v>
+        <v>0.086684669886818638</v>
       </c>
       <c r="E12">
-        <v>0.21520695425316194</v>
+        <v>0.26759921415129806</v>
       </c>
       <c r="F12">
-        <v>0.25007694096898048</v>
+        <v>0.23675246986232773</v>
       </c>
       <c r="G12">
-        <v>0.14392651013341562</v>
+        <v>0.098870168432029212</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0.13840278439532683</v>
+        <v>0.13792840301504028</v>
       </c>
       <c r="C13">
-        <v>0.17169069327219955</v>
+        <v>0.19022033493469581</v>
       </c>
       <c r="D13">
-        <v>0.086684669886818638</v>
+        <v>0.092041623765415623</v>
       </c>
       <c r="E13">
-        <v>0.26759921415129806</v>
+        <v>0.26674128151308024</v>
       </c>
       <c r="F13">
-        <v>0.23675246986232773</v>
+        <v>0.24592436467272333</v>
       </c>
       <c r="G13">
-        <v>0.098870168432029212</v>
+        <v>0.067143992099044536</v>
       </c>
       <c r="H13">
         <v>4</v>
